--- a/文档/开发计划表.xlsx
+++ b/文档/开发计划表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2020\SummerTraining\GitRepo\文档\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Github\i-LogisticsSystem\文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{974E8751-D222-4250-B2C3-FC8D523A300C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ECD3691-E08C-4BE1-B85A-E47AA4189B6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5964" yWindow="828" windowWidth="14784" windowHeight="10848" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="项目后端开发计划表 " sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="98">
   <si>
     <t>整体模块</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -591,19 +591,6 @@
         <i/>
         <sz val="11"/>
         <color rgb="FF3366FF"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>vue+bootstrap</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF3366FF"/>
         <rFont val="SimSun"/>
         <charset val="134"/>
       </rPr>
@@ -626,32 +613,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF3366FF"/>
-        <rFont val="SimSun"/>
-        <charset val="134"/>
-      </rPr>
-      <t>vue+bootstrap</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF3366FF"/>
-        <rFont val="SimSun"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">vue+bootstrap+高德地图 </t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">   物流配送管理系统后端   </t>
     </r>
     <r>
@@ -669,22 +630,6 @@
   </si>
   <si>
     <t>买家管理页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加供应商页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除供应商页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改供应商页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询供应商页面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -791,6 +736,26 @@
       <t>项目编码计划表</t>
     </r>
   </si>
+  <si>
+    <t>供应商管理页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vue+element-ui</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">vue+element-ui+高德地图 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商信息查看以及相应的增删改查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>范世旭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -799,7 +764,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy&quot;.&quot;m&quot;.&quot;d"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -869,6 +834,14 @@
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
       <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF3366FF"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1052,7 +1025,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1089,10 +1062,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1116,6 +1086,18 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1125,16 +1107,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1462,19 +1438,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="52.5" customHeight="1">
-      <c r="A1" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="17"/>
+      <c r="A1" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="16"/>
       <c r="L1" s="1"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
@@ -1493,30 +1469,30 @@
       <c r="AA1" s="2"/>
     </row>
     <row r="2" spans="1:27">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="19"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="13" t="s">
+      <c r="H2" s="18"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="20" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="4"/>
@@ -1538,12 +1514,12 @@
       <c r="AA2" s="2"/>
     </row>
     <row r="3" spans="1:27">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
+      <c r="A3" s="20"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
       <c r="G3" s="3" t="s">
         <v>8</v>
       </c>
@@ -1553,7 +1529,7 @@
       <c r="I3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="13"/>
+      <c r="J3" s="20"/>
       <c r="K3" s="5"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -1573,7 +1549,7 @@
       <c r="AA3" s="2"/>
     </row>
     <row r="4" spans="1:27" ht="45.75" customHeight="1">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="26" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -1622,7 +1598,7 @@
       <c r="AA4" s="2"/>
     </row>
     <row r="5" spans="1:27" ht="45.75" customHeight="1">
-      <c r="A5" s="24"/>
+      <c r="A5" s="22"/>
       <c r="B5" s="7" t="s">
         <v>17</v>
       </c>
@@ -1669,7 +1645,7 @@
       <c r="AA5" s="2"/>
     </row>
     <row r="6" spans="1:27" ht="45.75" customHeight="1">
-      <c r="A6" s="24"/>
+      <c r="A6" s="22"/>
       <c r="B6" s="6" t="s">
         <v>19</v>
       </c>
@@ -1716,7 +1692,7 @@
       <c r="AA6" s="2"/>
     </row>
     <row r="7" spans="1:27" ht="45.75" customHeight="1">
-      <c r="A7" s="24"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="6" t="s">
         <v>20</v>
       </c>
@@ -1763,7 +1739,7 @@
       <c r="AA7" s="2"/>
     </row>
     <row r="8" spans="1:27" ht="45.75" customHeight="1">
-      <c r="A8" s="25"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="6" t="s">
         <v>21</v>
       </c>
@@ -1810,7 +1786,7 @@
       <c r="AA8" s="2"/>
     </row>
     <row r="9" spans="1:27" ht="45.75" customHeight="1">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="24" t="s">
         <v>22</v>
       </c>
       <c r="B9" s="7" t="s">
@@ -1859,7 +1835,7 @@
       <c r="AA9" s="2"/>
     </row>
     <row r="10" spans="1:27" ht="45.75" customHeight="1">
-      <c r="A10" s="21"/>
+      <c r="A10" s="24"/>
       <c r="B10" s="7" t="s">
         <v>26</v>
       </c>
@@ -1906,7 +1882,7 @@
       <c r="AA10" s="2"/>
     </row>
     <row r="11" spans="1:27" ht="45.75" customHeight="1">
-      <c r="A11" s="21"/>
+      <c r="A11" s="24"/>
       <c r="B11" s="7" t="s">
         <v>28</v>
       </c>
@@ -1953,7 +1929,7 @@
       <c r="AA11" s="2"/>
     </row>
     <row r="12" spans="1:27" ht="45.75" customHeight="1">
-      <c r="A12" s="21"/>
+      <c r="A12" s="24"/>
       <c r="B12" s="7" t="s">
         <v>30</v>
       </c>
@@ -2000,7 +1976,7 @@
       <c r="AA12" s="2"/>
     </row>
     <row r="13" spans="1:27" ht="45.75" customHeight="1">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="27" t="s">
         <v>33</v>
       </c>
       <c r="B13" s="7" t="s">
@@ -2049,7 +2025,7 @@
       <c r="AA13" s="2"/>
     </row>
     <row r="14" spans="1:27" ht="45.75" customHeight="1">
-      <c r="A14" s="21"/>
+      <c r="A14" s="24"/>
       <c r="B14" s="6" t="s">
         <v>36</v>
       </c>
@@ -2096,7 +2072,7 @@
       <c r="AA14" s="2"/>
     </row>
     <row r="15" spans="1:27" ht="45.75" customHeight="1">
-      <c r="A15" s="21"/>
+      <c r="A15" s="24"/>
       <c r="B15" s="6" t="s">
         <v>39</v>
       </c>
@@ -2143,7 +2119,7 @@
       <c r="AA15" s="2"/>
     </row>
     <row r="16" spans="1:27" ht="45.75" customHeight="1">
-      <c r="A16" s="21"/>
+      <c r="A16" s="24"/>
       <c r="B16" s="6" t="s">
         <v>42</v>
       </c>
@@ -2190,7 +2166,7 @@
       <c r="AA16" s="2"/>
     </row>
     <row r="17" spans="1:27" ht="45.75" customHeight="1">
-      <c r="A17" s="21"/>
+      <c r="A17" s="24"/>
       <c r="B17" s="6" t="s">
         <v>44</v>
       </c>
@@ -2237,7 +2213,7 @@
       <c r="AA17" s="2"/>
     </row>
     <row r="18" spans="1:27" ht="45.75" customHeight="1">
-      <c r="A18" s="21"/>
+      <c r="A18" s="24"/>
       <c r="B18" s="6" t="s">
         <v>46</v>
       </c>
@@ -2284,7 +2260,7 @@
       <c r="AA18" s="2"/>
     </row>
     <row r="19" spans="1:27" ht="45.75" customHeight="1">
-      <c r="A19" s="21"/>
+      <c r="A19" s="24"/>
       <c r="B19" s="7" t="s">
         <v>48</v>
       </c>
@@ -2331,7 +2307,7 @@
       <c r="AA19" s="2"/>
     </row>
     <row r="20" spans="1:27" ht="45.75" customHeight="1">
-      <c r="A20" s="27" t="s">
+      <c r="A20" s="21" t="s">
         <v>50</v>
       </c>
       <c r="B20" s="6" t="s">
@@ -2380,7 +2356,7 @@
       <c r="AA20" s="2"/>
     </row>
     <row r="21" spans="1:27" ht="45.75" customHeight="1">
-      <c r="A21" s="24"/>
+      <c r="A21" s="22"/>
       <c r="B21" s="6" t="s">
         <v>54</v>
       </c>
@@ -2427,7 +2403,7 @@
       <c r="AA21" s="2"/>
     </row>
     <row r="22" spans="1:27" ht="45.75" customHeight="1">
-      <c r="A22" s="25"/>
+      <c r="A22" s="23"/>
       <c r="B22" s="6" t="s">
         <v>56</v>
       </c>
@@ -2474,7 +2450,7 @@
       <c r="AA22" s="2"/>
     </row>
     <row r="23" spans="1:27" ht="45.75" customHeight="1">
-      <c r="A23" s="27" t="s">
+      <c r="A23" s="21" t="s">
         <v>58</v>
       </c>
       <c r="B23" s="6" t="s">
@@ -2523,7 +2499,7 @@
       <c r="AA23" s="2"/>
     </row>
     <row r="24" spans="1:27" ht="45.75" customHeight="1">
-      <c r="A24" s="24"/>
+      <c r="A24" s="22"/>
       <c r="B24" s="6" t="s">
         <v>60</v>
       </c>
@@ -2570,7 +2546,7 @@
       <c r="AA24" s="2"/>
     </row>
     <row r="25" spans="1:27" ht="45.75" customHeight="1">
-      <c r="A25" s="24"/>
+      <c r="A25" s="22"/>
       <c r="B25" s="6" t="s">
         <v>62</v>
       </c>
@@ -2617,7 +2593,7 @@
       <c r="AA25" s="2"/>
     </row>
     <row r="26" spans="1:27" ht="45.75" customHeight="1">
-      <c r="A26" s="25"/>
+      <c r="A26" s="23"/>
       <c r="B26" s="6" t="s">
         <v>64</v>
       </c>
@@ -8030,6 +8006,9 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="A2:A3"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A23:A26"/>
     <mergeCell ref="A9:A12"/>
@@ -8041,9 +8020,6 @@
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="A2:A3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8052,10 +8028,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AA200"/>
+  <dimension ref="A1:AA197"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15.6"/>
@@ -8075,19 +8051,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="52.5" customHeight="1">
-      <c r="A1" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="17"/>
+      <c r="A1" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="16"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
@@ -8106,30 +8082,30 @@
       <c r="AA1" s="2"/>
     </row>
     <row r="2" spans="1:27">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="19"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="13" t="s">
+      <c r="H2" s="18"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="20" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="4"/>
@@ -8151,12 +8127,12 @@
       <c r="AA2" s="2"/>
     </row>
     <row r="3" spans="1:27">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
+      <c r="A3" s="20"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
       <c r="G3" s="3" t="s">
         <v>8</v>
       </c>
@@ -8166,7 +8142,7 @@
       <c r="I3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="13"/>
+      <c r="J3" s="20"/>
       <c r="K3" s="5"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -8186,11 +8162,11 @@
       <c r="AA3" s="2"/>
     </row>
     <row r="4" spans="1:27" ht="45.75" customHeight="1">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="26" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C4" s="7">
         <v>5</v>
@@ -8198,8 +8174,8 @@
       <c r="D4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>66</v>
+      <c r="E4" s="12" t="s">
+        <v>94</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>15</v>
@@ -8214,7 +8190,7 @@
         <v>44018</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K4" s="5"/>
       <c r="L4" s="2"/>
@@ -8235,18 +8211,18 @@
       <c r="AA4" s="2"/>
     </row>
     <row r="5" spans="1:27" ht="45.75" customHeight="1">
-      <c r="A5" s="24"/>
-      <c r="B5" s="7" t="s">
-        <v>73</v>
+      <c r="A5" s="22"/>
+      <c r="B5" s="12" t="s">
+        <v>93</v>
       </c>
       <c r="C5" s="7">
-        <v>5</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>66</v>
+        <v>20</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>94</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>15</v>
@@ -8261,7 +8237,7 @@
         <v>44018</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="K5" s="5"/>
       <c r="L5" s="2"/>
@@ -8282,30 +8258,32 @@
       <c r="AA5" s="2"/>
     </row>
     <row r="6" spans="1:27" ht="45.75" customHeight="1">
-      <c r="A6" s="24"/>
-      <c r="B6" s="6" t="s">
+      <c r="A6" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="7">
+        <v>15</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C6" s="7">
-        <v>5</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>66</v>
+      <c r="E6" s="12" t="s">
+        <v>94</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G6" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H6" s="8">
-        <v>44018</v>
+        <v>44019</v>
       </c>
       <c r="I6" s="8">
-        <v>44018</v>
+        <v>44020</v>
       </c>
       <c r="J6" s="6" t="s">
         <v>67</v>
@@ -8330,29 +8308,29 @@
     </row>
     <row r="7" spans="1:27" ht="45.75" customHeight="1">
       <c r="A7" s="24"/>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="7">
+        <v>15</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="7">
-        <v>5</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>66</v>
+      <c r="E7" s="12" t="s">
+        <v>94</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G7" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H7" s="8">
-        <v>44018</v>
+        <v>44019</v>
       </c>
       <c r="I7" s="8">
-        <v>44018</v>
+        <v>44020</v>
       </c>
       <c r="J7" s="6" t="s">
         <v>67</v>
@@ -8376,30 +8354,30 @@
       <c r="AA7" s="2"/>
     </row>
     <row r="8" spans="1:27" ht="45.75" customHeight="1">
-      <c r="A8" s="25"/>
-      <c r="B8" s="6" t="s">
+      <c r="A8" s="24"/>
+      <c r="B8" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="7">
+        <v>15</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C8" s="7">
-        <v>5</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>66</v>
+      <c r="E8" s="12" t="s">
+        <v>94</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G8" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H8" s="8">
-        <v>44018</v>
+        <v>44019</v>
       </c>
       <c r="I8" s="8">
-        <v>44018</v>
+        <v>44020</v>
       </c>
       <c r="J8" s="6" t="s">
         <v>67</v>
@@ -8423,20 +8401,18 @@
       <c r="AA8" s="2"/>
     </row>
     <row r="9" spans="1:27" ht="45.75" customHeight="1">
-      <c r="A9" s="21" t="s">
-        <v>22</v>
-      </c>
+      <c r="A9" s="24"/>
       <c r="B9" s="7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C9" s="7">
         <v>15</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>66</v>
+      <c r="D9" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>94</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>15</v>
@@ -8445,13 +8421,13 @@
         <v>7</v>
       </c>
       <c r="H9" s="8">
-        <v>44019</v>
+        <v>44018</v>
       </c>
       <c r="I9" s="8">
-        <v>44020</v>
+        <v>44021</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K9" s="5"/>
       <c r="L9" s="2"/>
@@ -8472,33 +8448,35 @@
       <c r="AA9" s="2"/>
     </row>
     <row r="10" spans="1:27" ht="45.75" customHeight="1">
-      <c r="A10" s="21"/>
+      <c r="A10" s="27" t="s">
+        <v>33</v>
+      </c>
       <c r="B10" s="7" t="s">
         <v>78</v>
       </c>
       <c r="C10" s="7">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>66</v>
+        <v>35</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>94</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="7">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H10" s="8">
         <v>44019</v>
       </c>
       <c r="I10" s="8">
-        <v>44020</v>
+        <v>44021</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K10" s="5"/>
       <c r="L10" s="2"/>
@@ -8519,33 +8497,33 @@
       <c r="AA10" s="2"/>
     </row>
     <row r="11" spans="1:27" ht="45.75" customHeight="1">
-      <c r="A11" s="21"/>
-      <c r="B11" s="7" t="s">
+      <c r="A11" s="24"/>
+      <c r="B11" s="6" t="s">
         <v>79</v>
       </c>
       <c r="C11" s="7">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>66</v>
+        <v>80</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G11" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H11" s="8">
         <v>44019</v>
       </c>
       <c r="I11" s="8">
-        <v>44020</v>
+        <v>44021</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K11" s="5"/>
       <c r="L11" s="2"/>
@@ -8566,33 +8544,33 @@
       <c r="AA11" s="2"/>
     </row>
     <row r="12" spans="1:27" ht="45.75" customHeight="1">
-      <c r="A12" s="21"/>
-      <c r="B12" s="7" t="s">
-        <v>80</v>
+      <c r="A12" s="24"/>
+      <c r="B12" s="6" t="s">
+        <v>81</v>
       </c>
       <c r="C12" s="7">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>66</v>
+        <v>40</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>94</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G12" s="7">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H12" s="8">
-        <v>44018</v>
+        <v>44019</v>
       </c>
       <c r="I12" s="8">
         <v>44021</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K12" s="5"/>
       <c r="L12" s="2"/>
@@ -8613,35 +8591,33 @@
       <c r="AA12" s="2"/>
     </row>
     <row r="13" spans="1:27" ht="45.75" customHeight="1">
-      <c r="A13" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>85</v>
+      <c r="A13" s="24"/>
+      <c r="B13" s="6" t="s">
+        <v>82</v>
       </c>
       <c r="C13" s="7">
         <v>10</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G13" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H13" s="8">
-        <v>44018</v>
+        <v>44019</v>
       </c>
       <c r="I13" s="8">
         <v>44021</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K13" s="5"/>
       <c r="L13" s="2"/>
@@ -8662,33 +8638,33 @@
       <c r="AA13" s="2"/>
     </row>
     <row r="14" spans="1:27" ht="45.75" customHeight="1">
-      <c r="A14" s="21"/>
+      <c r="A14" s="24"/>
       <c r="B14" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C14" s="7">
         <v>10</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>70</v>
+        <v>45</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>94</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G14" s="7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H14" s="8">
-        <v>44018</v>
+        <v>44019</v>
       </c>
       <c r="I14" s="8">
         <v>44021</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K14" s="5"/>
       <c r="L14" s="2"/>
@@ -8709,18 +8685,18 @@
       <c r="AA14" s="2"/>
     </row>
     <row r="15" spans="1:27" ht="45.75" customHeight="1">
-      <c r="A15" s="21"/>
+      <c r="A15" s="24"/>
       <c r="B15" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C15" s="7">
         <v>10</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>66</v>
+        <v>47</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>94</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>15</v>
@@ -8729,13 +8705,13 @@
         <v>3</v>
       </c>
       <c r="H15" s="8">
-        <v>44018</v>
+        <v>44019</v>
       </c>
       <c r="I15" s="8">
         <v>44021</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K15" s="5"/>
       <c r="L15" s="2"/>
@@ -8756,33 +8732,33 @@
       <c r="AA15" s="2"/>
     </row>
     <row r="16" spans="1:27" ht="45.75" customHeight="1">
-      <c r="A16" s="21"/>
-      <c r="B16" s="6" t="s">
-        <v>89</v>
+      <c r="A16" s="24"/>
+      <c r="B16" s="7" t="s">
+        <v>85</v>
       </c>
       <c r="C16" s="7">
         <v>10</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>70</v>
+        <v>49</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>94</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G16" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H16" s="8">
-        <v>44018</v>
+        <v>44019</v>
       </c>
       <c r="I16" s="8">
         <v>44021</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K16" s="5"/>
       <c r="L16" s="2"/>
@@ -8803,30 +8779,32 @@
       <c r="AA16" s="2"/>
     </row>
     <row r="17" spans="1:27" ht="45.75" customHeight="1">
-      <c r="A17" s="21"/>
+      <c r="A17" s="21" t="s">
+        <v>50</v>
+      </c>
       <c r="B17" s="6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C17" s="7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>66</v>
+        <v>52</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>94</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G17" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H17" s="8">
-        <v>44018</v>
+        <v>44022</v>
       </c>
       <c r="I17" s="8">
-        <v>44021</v>
+        <v>44025</v>
       </c>
       <c r="J17" s="6" t="s">
         <v>67</v>
@@ -8850,30 +8828,30 @@
       <c r="AA17" s="2"/>
     </row>
     <row r="18" spans="1:27" ht="45.75" customHeight="1">
-      <c r="A18" s="21"/>
+      <c r="A18" s="22"/>
       <c r="B18" s="6" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C18" s="7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>66</v>
+        <v>55</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>94</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G18" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H18" s="8">
-        <v>44018</v>
+        <v>44022</v>
       </c>
       <c r="I18" s="8">
-        <v>44021</v>
+        <v>44025</v>
       </c>
       <c r="J18" s="6" t="s">
         <v>67</v>
@@ -8897,30 +8875,30 @@
       <c r="AA18" s="2"/>
     </row>
     <row r="19" spans="1:27" ht="45.75" customHeight="1">
-      <c r="A19" s="21"/>
-      <c r="B19" s="7" t="s">
-        <v>92</v>
+      <c r="A19" s="23"/>
+      <c r="B19" s="6" t="s">
+        <v>88</v>
       </c>
       <c r="C19" s="7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>66</v>
+        <v>57</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>94</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G19" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H19" s="8">
-        <v>44018</v>
+        <v>44022</v>
       </c>
       <c r="I19" s="8">
-        <v>44021</v>
+        <v>44025</v>
       </c>
       <c r="J19" s="6" t="s">
         <v>67</v>
@@ -8944,20 +8922,20 @@
       <c r="AA19" s="2"/>
     </row>
     <row r="20" spans="1:27" ht="45.75" customHeight="1">
-      <c r="A20" s="27" t="s">
-        <v>50</v>
+      <c r="A20" s="21" t="s">
+        <v>58</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="C20" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>66</v>
+        <v>37</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>15</v>
@@ -8966,13 +8944,13 @@
         <v>6</v>
       </c>
       <c r="H20" s="8">
-        <v>44022</v>
+        <v>44023</v>
       </c>
       <c r="I20" s="8">
         <v>44025</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K20" s="5"/>
       <c r="L20" s="2"/>
@@ -8993,18 +8971,18 @@
       <c r="AA20" s="2"/>
     </row>
     <row r="21" spans="1:27" ht="45.75" customHeight="1">
-      <c r="A21" s="24"/>
+      <c r="A21" s="22"/>
       <c r="B21" s="6" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C21" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>66</v>
+        <v>61</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>15</v>
@@ -9019,7 +8997,7 @@
         <v>44025</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K21" s="5"/>
       <c r="L21" s="2"/>
@@ -9040,24 +9018,24 @@
       <c r="AA21" s="2"/>
     </row>
     <row r="22" spans="1:27" ht="45.75" customHeight="1">
-      <c r="A22" s="25"/>
+      <c r="A22" s="22"/>
       <c r="B22" s="6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C22" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>94</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G22" s="7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H22" s="8">
         <v>44022</v>
@@ -9066,7 +9044,7 @@
         <v>44025</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K22" s="5"/>
       <c r="L22" s="2"/>
@@ -9087,35 +9065,33 @@
       <c r="AA22" s="2"/>
     </row>
     <row r="23" spans="1:27" ht="45.75" customHeight="1">
-      <c r="A23" s="27" t="s">
-        <v>58</v>
-      </c>
+      <c r="A23" s="23"/>
       <c r="B23" s="6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C23" s="7">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>70</v>
+        <v>65</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>94</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G23" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H23" s="8">
-        <v>44023</v>
+        <v>44022</v>
       </c>
       <c r="I23" s="8">
         <v>44025</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K23" s="5"/>
       <c r="L23" s="2"/>
@@ -9135,36 +9111,18 @@
       <c r="Z23" s="2"/>
       <c r="AA23" s="2"/>
     </row>
-    <row r="24" spans="1:27" ht="45.75" customHeight="1">
-      <c r="A24" s="24"/>
-      <c r="B24" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C24" s="7">
-        <v>10</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G24" s="7">
-        <v>6</v>
-      </c>
-      <c r="H24" s="8">
-        <v>44022</v>
-      </c>
-      <c r="I24" s="8">
-        <v>44025</v>
-      </c>
-      <c r="J24" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="K24" s="5"/>
+    <row r="24" spans="1:27">
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="2"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -9182,36 +9140,18 @@
       <c r="Z24" s="2"/>
       <c r="AA24" s="2"/>
     </row>
-    <row r="25" spans="1:27" ht="45.75" customHeight="1">
-      <c r="A25" s="24"/>
-      <c r="B25" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C25" s="7">
-        <v>10</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G25" s="7">
-        <v>3</v>
-      </c>
-      <c r="H25" s="8">
-        <v>44022</v>
-      </c>
-      <c r="I25" s="8">
-        <v>44025</v>
-      </c>
-      <c r="J25" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="K25" s="5"/>
+    <row r="25" spans="1:27">
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="2"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -9229,36 +9169,18 @@
       <c r="Z25" s="2"/>
       <c r="AA25" s="2"/>
     </row>
-    <row r="26" spans="1:27" ht="45.75" customHeight="1">
-      <c r="A26" s="25"/>
-      <c r="B26" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="C26" s="7">
-        <v>15</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G26" s="7">
-        <v>7</v>
-      </c>
-      <c r="H26" s="8">
-        <v>44022</v>
-      </c>
-      <c r="I26" s="8">
-        <v>44025</v>
-      </c>
-      <c r="J26" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="K26" s="5"/>
+    <row r="26" spans="1:27">
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="2"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -9286,7 +9208,7 @@
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
-      <c r="J27" s="10"/>
+      <c r="J27" s="9"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
@@ -14235,100 +14157,13 @@
       <c r="Z197" s="2"/>
       <c r="AA197" s="2"/>
     </row>
-    <row r="198" spans="1:27">
-      <c r="A198" s="9"/>
-      <c r="B198" s="9"/>
-      <c r="C198" s="9"/>
-      <c r="D198" s="9"/>
-      <c r="E198" s="9"/>
-      <c r="F198" s="9"/>
-      <c r="G198" s="9"/>
-      <c r="H198" s="9"/>
-      <c r="I198" s="9"/>
-      <c r="J198" s="9"/>
-      <c r="K198" s="2"/>
-      <c r="L198" s="2"/>
-      <c r="M198" s="2"/>
-      <c r="N198" s="2"/>
-      <c r="O198" s="2"/>
-      <c r="P198" s="2"/>
-      <c r="Q198" s="2"/>
-      <c r="R198" s="2"/>
-      <c r="S198" s="2"/>
-      <c r="T198" s="2"/>
-      <c r="U198" s="2"/>
-      <c r="V198" s="2"/>
-      <c r="W198" s="2"/>
-      <c r="X198" s="2"/>
-      <c r="Y198" s="2"/>
-      <c r="Z198" s="2"/>
-      <c r="AA198" s="2"/>
-    </row>
-    <row r="199" spans="1:27">
-      <c r="A199" s="9"/>
-      <c r="B199" s="9"/>
-      <c r="C199" s="9"/>
-      <c r="D199" s="9"/>
-      <c r="E199" s="9"/>
-      <c r="F199" s="9"/>
-      <c r="G199" s="9"/>
-      <c r="H199" s="9"/>
-      <c r="I199" s="9"/>
-      <c r="J199" s="9"/>
-      <c r="K199" s="2"/>
-      <c r="L199" s="2"/>
-      <c r="M199" s="2"/>
-      <c r="N199" s="2"/>
-      <c r="O199" s="2"/>
-      <c r="P199" s="2"/>
-      <c r="Q199" s="2"/>
-      <c r="R199" s="2"/>
-      <c r="S199" s="2"/>
-      <c r="T199" s="2"/>
-      <c r="U199" s="2"/>
-      <c r="V199" s="2"/>
-      <c r="W199" s="2"/>
-      <c r="X199" s="2"/>
-      <c r="Y199" s="2"/>
-      <c r="Z199" s="2"/>
-      <c r="AA199" s="2"/>
-    </row>
-    <row r="200" spans="1:27">
-      <c r="A200" s="9"/>
-      <c r="B200" s="9"/>
-      <c r="C200" s="9"/>
-      <c r="D200" s="9"/>
-      <c r="E200" s="9"/>
-      <c r="F200" s="9"/>
-      <c r="G200" s="9"/>
-      <c r="H200" s="9"/>
-      <c r="I200" s="9"/>
-      <c r="J200" s="9"/>
-      <c r="K200" s="2"/>
-      <c r="L200" s="2"/>
-      <c r="M200" s="2"/>
-      <c r="N200" s="2"/>
-      <c r="O200" s="2"/>
-      <c r="P200" s="2"/>
-      <c r="Q200" s="2"/>
-      <c r="R200" s="2"/>
-      <c r="S200" s="2"/>
-      <c r="T200" s="2"/>
-      <c r="U200" s="2"/>
-      <c r="V200" s="2"/>
-      <c r="W200" s="2"/>
-      <c r="X200" s="2"/>
-      <c r="Y200" s="2"/>
-      <c r="Z200" s="2"/>
-      <c r="AA200" s="2"/>
-    </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="A13:A19"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="A2:A3"/>
@@ -14341,6 +14176,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
 
